--- a/boleta_completa.xlsx
+++ b/boleta_completa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>Ativo(PnT- Giro de Carteira)</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>CAMB3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +480,7 @@
         <v>94</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -524,7 +530,7 @@
         <v>155</v>
       </c>
       <c r="C6">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -535,7 +541,7 @@
         <v>607</v>
       </c>
       <c r="C7">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -557,7 +563,7 @@
         <v>834</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -612,7 +618,7 @@
         <v>487</v>
       </c>
       <c r="C14">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -683,211 +689,211 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>3613076</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-114</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>-35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3613076</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>499</v>
+        <v>-114</v>
       </c>
       <c r="C24">
-        <v>13.5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="C25">
-        <v>13.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C26">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>1153</v>
+        <v>130</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>698</v>
+        <v>507</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>394</v>
+        <v>1153</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>223</v>
+        <v>698</v>
       </c>
       <c r="C30">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>1260</v>
+        <v>394</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>406</v>
+        <v>1260</v>
       </c>
       <c r="C33">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>513</v>
+        <v>208</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>876</v>
+        <v>406</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C36">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -898,374 +904,374 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>23</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>15260372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>13.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>13.5</v>
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>15260372</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>188</v>
+        <v>-42</v>
       </c>
       <c r="C45">
-        <v>11.5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>421</v>
+        <v>112</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>188</v>
+      </c>
+      <c r="C49">
         <v>13</v>
       </c>
-      <c r="B48">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>421</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>259</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
         <v>148</v>
       </c>
-      <c r="C48">
+      <c r="C52">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>14</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <v>82</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>6.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <v>467</v>
       </c>
-      <c r="C50">
+      <c r="C54">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>77</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>17</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>149</v>
       </c>
-      <c r="C52">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>18</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>191</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>19</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>327</v>
       </c>
-      <c r="C54">
+      <c r="C58">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>184</v>
       </c>
-      <c r="C55">
+      <c r="C59">
         <v>2.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>23</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>23</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>8719892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>-90</v>
-      </c>
-      <c r="C60">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61">
-        <v>241</v>
-      </c>
-      <c r="C61">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
       <c r="B62">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>11.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>903</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>8719892</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>548</v>
+        <v>-90</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>174</v>
+        <v>392</v>
       </c>
       <c r="C68">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>988</v>
+        <v>102</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>164</v>
+        <v>399</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>318</v>
+        <v>903</v>
       </c>
       <c r="C71">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>402</v>
+        <v>548</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1273,272 +1279,382 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>687</v>
+        <v>309</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="C78">
-        <v>23</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>3416477</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>-292</v>
+        <v>687</v>
       </c>
       <c r="C79">
-        <v>-35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80">
+        <v>387</v>
+      </c>
+      <c r="C80">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>250</v>
+      </c>
+      <c r="C86">
+        <v>26</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>3416477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>-292</v>
+      </c>
+      <c r="C87">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>7</v>
       </c>
-      <c r="B80">
+      <c r="B88">
         <v>712</v>
       </c>
-      <c r="C80">
+      <c r="C88">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>8</v>
       </c>
-      <c r="B81">
-        <v>1077</v>
-      </c>
-      <c r="C81">
+      <c r="B89">
+        <v>1519</v>
+      </c>
+      <c r="C89">
         <v>13.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="B82">
-        <v>379</v>
-      </c>
-      <c r="C82">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B90">
+        <v>254</v>
+      </c>
+      <c r="C90">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B83">
+      <c r="B91">
         <v>1197</v>
       </c>
-      <c r="C83">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B84">
-        <v>2251</v>
-      </c>
-      <c r="C84">
+      <c r="B92">
+        <v>2413</v>
+      </c>
+      <c r="C92">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="B85">
+      <c r="B93">
         <v>1539</v>
       </c>
-      <c r="C85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>13</v>
       </c>
-      <c r="B86">
+      <c r="B94">
         <v>1132</v>
       </c>
-      <c r="C86">
+      <c r="C94">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>14</v>
       </c>
-      <c r="B87">
+      <c r="B95">
         <v>565</v>
       </c>
-      <c r="C87">
+      <c r="C95">
         <v>6.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>15</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>16</v>
       </c>
-      <c r="B89">
-        <v>923</v>
-      </c>
-      <c r="C89">
+      <c r="B97">
+        <v>482</v>
+      </c>
+      <c r="C97">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>17</v>
       </c>
-      <c r="B90">
+      <c r="B98">
         <v>1029</v>
       </c>
-      <c r="C90">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>18</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>19</v>
       </c>
-      <c r="B92">
+      <c r="B100">
         <v>1983</v>
       </c>
-      <c r="C92">
+      <c r="C100">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B93">
+      <c r="B101">
         <v>1045</v>
       </c>
-      <c r="C93">
+      <c r="C101">
         <v>2.5</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>21</v>
       </c>
-      <c r="B94">
+      <c r="B102">
         <v>1065</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>22</v>
       </c>
-      <c r="B95">
+      <c r="B103">
         <v>822</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>23</v>
       </c>
-      <c r="B96">
+      <c r="B104">
         <v>692</v>
       </c>
-      <c r="C96">
-        <v>0</v>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/boleta_completa.xlsx
+++ b/boleta_completa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
   <si>
     <t>Ativo(PnT- Giro de Carteira)</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>MOVI3</t>
+  </si>
+  <si>
+    <t>PLPL3</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +483,7 @@
         <v>94</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>37.2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -519,7 +522,7 @@
         <v>596</v>
       </c>
       <c r="C5">
-        <v>13.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -552,7 +555,7 @@
         <v>1385</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,7 +566,7 @@
         <v>834</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -574,7 +577,7 @@
         <v>471</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -585,7 +588,7 @@
         <v>265</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -596,7 +599,7 @@
         <v>1497</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,7 +610,7 @@
         <v>249</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,7 +621,7 @@
         <v>487</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -651,7 +654,7 @@
         <v>587</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -706,197 +709,197 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>3613076</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>-114</v>
+        <v>78</v>
       </c>
       <c r="C24">
-        <v>-35</v>
+        <v>37.2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3613076</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>306</v>
+        <v>-114</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>499</v>
+        <v>306</v>
       </c>
       <c r="C26">
-        <v>13.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>499</v>
+      </c>
+      <c r="C27">
         <v>9</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-      <c r="C27">
-        <v>11.5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>507</v>
+        <v>130</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>1153</v>
+        <v>507</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>698</v>
+        <v>1153</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>394</v>
+        <v>698</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="C32">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>1260</v>
+        <v>223</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>208</v>
+        <v>1260</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>406</v>
+        <v>208</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>513</v>
+        <v>406</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>876</v>
+        <v>513</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>493</v>
+        <v>876</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -904,7 +907,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -926,225 +929,225 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>26</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>15260372</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>-35</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>37.2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>15260372</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>184</v>
+        <v>-42</v>
       </c>
       <c r="C47">
-        <v>13.5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C48">
-        <v>11.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>421</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>148</v>
+        <v>421</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="C53">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>467</v>
+        <v>148</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>149</v>
+        <v>467</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B59">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C59">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1163,104 +1166,104 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>26</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>8719892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-35</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>392</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>13.5</v>
+        <v>37.2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>8719892</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>102</v>
+        <v>-90</v>
       </c>
       <c r="C69">
-        <v>11.5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>903</v>
+        <v>392</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -1268,131 +1271,131 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>548</v>
+        <v>102</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>399</v>
+      </c>
+      <c r="C73">
         <v>13</v>
-      </c>
-      <c r="B73">
-        <v>309</v>
-      </c>
-      <c r="C73">
-        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>174</v>
+        <v>903</v>
       </c>
       <c r="C74">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>988</v>
+        <v>548</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>318</v>
+        <v>174</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>402</v>
+        <v>988</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B79">
-        <v>687</v>
+        <v>164</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B80">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="C80">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1400,214 +1403,214 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B86">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>26</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>3416477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B87">
-        <v>-292</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B88">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B89">
-        <v>1519</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C90">
-        <v>11.5</v>
+        <v>37.2</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>3416477</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B91">
-        <v>1197</v>
+        <v>-318</v>
       </c>
       <c r="C91">
-        <v>13</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B92">
-        <v>2413</v>
+        <v>839</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B93">
-        <v>1539</v>
+        <v>795</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>1132</v>
+        <v>299</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>565</v>
+        <v>1583</v>
       </c>
       <c r="C95">
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>482</v>
+        <v>699</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>1029</v>
+        <v>1074</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>1983</v>
+        <v>3292</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B101">
-        <v>1045</v>
+        <v>605</v>
       </c>
       <c r="C101">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B102">
-        <v>1065</v>
+        <v>488</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1615,46 +1618,101 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>822</v>
+        <v>1336</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>692</v>
+        <v>1998</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1437</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109">
+        <v>409</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>25</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
+      <c r="B110">
+        <v>507</v>
+      </c>
+      <c r="C110">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
